--- a/Excel/Sample1.xlsx
+++ b/Excel/Sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Tools\ExcelConfigTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EACB6E-1207-413F-A0E5-54804787C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972BCB77-DAEF-4912-942F-5A25AFA80B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>id|int</t>
   </si>
   <si>
-    <t>level|int</t>
-  </si>
-  <si>
     <t>isActive|bool</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>2024-12-07-23-43-44</t>
+  </si>
+  <si>
+    <t>level|long</t>
   </si>
 </sst>
 </file>
@@ -382,14 +382,14 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -401,19 +401,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -430,10 +430,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -461,13 +461,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Sample1.xlsx
+++ b/Excel/Sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Tools\ExcelConfigTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972BCB77-DAEF-4912-942F-5A25AFA80B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023EC772-10C0-4865-8347-65F86E04E35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="9750" windowWidth="15390" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id|int</t>
   </si>
@@ -60,7 +60,16 @@
     <t>2024-12-07-23-43-44</t>
   </si>
   <si>
-    <t>level|long</t>
+    <t>level|int^id(Level)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -382,14 +391,14 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -423,8 +432,8 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>100</v>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -443,8 +452,8 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>200</v>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -463,8 +472,8 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>300</v>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
